--- a/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
+++ b/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="391">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1332,6 +1333,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -1341,6 +1345,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -1348,12 +1358,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -1593,7 +1597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1759,10 +1763,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2476,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2540,31 +2540,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M38" activeCellId="0" sqref="M38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>44</v>
@@ -2572,65 +2571,47 @@
       <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45658</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="42" t="b">
+        <f aca="false">E2+20</f>
+        <v>45678</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2640,87 +2621,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45658</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" s="8" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2739,79 +2675,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45658</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2829,16 +2728,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,43 +2745,16 @@
         <v>370</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="8" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2900,59 +2772,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="8" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2971,79 +2825,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="n">
+      <c r="D2" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3062,46 +2878,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="8" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -23059,7 +22930,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
@@ -23095,7 +22966,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -23131,7 +23002,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -23167,7 +23038,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -23203,7 +23074,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
@@ -23239,7 +23110,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
@@ -23275,7 +23146,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
@@ -23311,7 +23182,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -23347,7 +23218,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -23383,7 +23254,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -23419,7 +23290,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
@@ -23454,7 +23325,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
@@ -23490,7 +23361,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B15)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
         <v>1</v>
       </c>
@@ -23526,7 +23397,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B16)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
         <v>1</v>
       </c>
@@ -23562,7 +23433,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B17)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
         <v>1</v>
       </c>
@@ -23598,7 +23469,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B18)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
         <v>1</v>
       </c>
@@ -23632,7 +23503,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B19)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C19), ISNUMBER(D19), C19&lt;=D19)</f>
         <v>1</v>
       </c>
@@ -23668,7 +23539,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B20)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C20), ISNUMBER(D20), C20&lt;=D20)</f>
         <v>1</v>
       </c>
@@ -23704,7 +23575,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B21)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C21), ISNUMBER(D21), C21&lt;=D21)</f>
         <v>1</v>
       </c>
@@ -23740,7 +23611,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B22)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C22), ISNUMBER(D22), C22&lt;=D22)</f>
         <v>1</v>
       </c>
@@ -23776,7 +23647,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B23)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C23), ISNUMBER(D23), C23&lt;=D23)</f>
         <v>1</v>
       </c>
@@ -23812,7 +23683,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B24)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C24), ISNUMBER(D24), C24&lt;=D24)</f>
         <v>1</v>
       </c>
@@ -23848,7 +23719,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B25)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C25), ISNUMBER(D25), C25&lt;=D25)</f>
         <v>1</v>
       </c>
@@ -23884,7 +23755,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B26)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C26), ISNUMBER(D26), C26&lt;=D26)</f>
         <v>1</v>
       </c>
@@ -23920,7 +23791,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B27)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C27), ISNUMBER(D27), C27&lt;=D27)</f>
         <v>1</v>
       </c>
@@ -23956,7 +23827,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B28)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C28), ISNUMBER(D28), C28&lt;=D28)</f>
         <v>1</v>
       </c>
@@ -23993,7 +23864,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B29)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C29), ISNUMBER(D29), C29&lt;=D29)</f>
         <v>1</v>
       </c>
@@ -24030,7 +23901,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B30)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C30), ISNUMBER(D30), C30&lt;=D30)</f>
         <v>1</v>
       </c>
@@ -24067,7 +23938,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B31)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C31), ISNUMBER(D31), C31&lt;=D31)</f>
         <v>1</v>
       </c>
@@ -24104,7 +23975,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B32)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C32), ISNUMBER(D32), C32&lt;=D32)</f>
         <v>1</v>
       </c>
@@ -24141,7 +24012,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B33)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C33), ISNUMBER(D33), C33&lt;=D33)</f>
         <v>1</v>
       </c>
@@ -24178,7 +24049,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B34)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C34), ISNUMBER(D34), C34&lt;=D34)</f>
         <v>1</v>
       </c>
@@ -24215,7 +24086,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B35)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C35), ISNUMBER(D35), C35&lt;=D35)</f>
         <v>1</v>
       </c>
@@ -24252,7 +24123,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B36)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C36), ISNUMBER(D36), C36&lt;=D36)</f>
         <v>1</v>
       </c>
@@ -24289,7 +24160,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B37)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C37), ISNUMBER(D37), C37&lt;=D37)</f>
         <v>1</v>
       </c>
@@ -24326,7 +24197,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B38)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C38), ISNUMBER(D38), C38&lt;=D38)</f>
         <v>1</v>
       </c>
@@ -24363,7 +24234,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B39)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C39), ISNUMBER(D39), C39&lt;=D39)</f>
         <v>1</v>
       </c>
@@ -24400,7 +24271,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B40)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C40), ISNUMBER(D40), C40&lt;=D40)</f>
         <v>1</v>
       </c>
@@ -24437,7 +24308,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B41)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C41), ISNUMBER(D41), C41&lt;=D41)</f>
         <v>1</v>
       </c>
@@ -24474,7 +24345,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B42)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C42), ISNUMBER(D42), C42&lt;=D42)</f>
         <v>1</v>
       </c>
@@ -24511,7 +24382,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B43)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C43), ISNUMBER(D43), C43&lt;=D43)</f>
         <v>1</v>
       </c>
@@ -24548,7 +24419,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B44)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C44), ISNUMBER(D44), C44&lt;=D44)</f>
         <v>1</v>
       </c>
@@ -24585,7 +24456,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B45)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C45), ISNUMBER(D45), C45&lt;=D45)</f>
         <v>1</v>
       </c>
@@ -24622,7 +24493,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B46)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C46), ISNUMBER(D46), C46&lt;=D46)</f>
         <v>1</v>
       </c>
@@ -24659,7 +24530,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B47)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C47), ISNUMBER(D47), C47&lt;=D47)</f>
         <v>1</v>
       </c>
@@ -24696,7 +24567,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B48)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C48), ISNUMBER(D48), C48&lt;=D48)</f>
         <v>1</v>
       </c>
@@ -24733,7 +24604,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B49)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C49), ISNUMBER(D49), C49&lt;=D49)</f>
         <v>1</v>
       </c>
@@ -24770,7 +24641,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B50)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C50), ISNUMBER(D50), C50&lt;=D50)</f>
         <v>1</v>
       </c>
@@ -24807,7 +24678,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B51)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C51), ISNUMBER(D51), C51&lt;=D51)</f>
         <v>1</v>
       </c>
@@ -24844,7 +24715,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B52)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C52), ISNUMBER(D52), C52&lt;=D52)</f>
         <v>1</v>
       </c>
@@ -24881,7 +24752,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B53)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C53), ISNUMBER(D53), C53&lt;=D53)</f>
         <v>1</v>
       </c>
@@ -24918,7 +24789,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B54)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C54), ISNUMBER(D54), C54&lt;=D54)</f>
         <v>1</v>
       </c>
@@ -24955,7 +24826,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B55)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C55), ISNUMBER(D55), C55&lt;=D55)</f>
         <v>1</v>
       </c>
@@ -24992,7 +24863,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B56)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C56), ISNUMBER(D56), C56&lt;=D56)</f>
         <v>1</v>
       </c>
@@ -25029,7 +24900,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B57)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C57), ISNUMBER(D57), C57&lt;=D57)</f>
         <v>1</v>
       </c>
@@ -25066,7 +24937,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B58)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C58), ISNUMBER(D58), C58&lt;=D58)</f>
         <v>1</v>
       </c>
@@ -25103,7 +24974,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B59)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C59), ISNUMBER(D59), C59&lt;=D59)</f>
         <v>1</v>
       </c>
@@ -25140,7 +25011,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B60)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C60), ISNUMBER(D60), C60&lt;=D60)</f>
         <v>1</v>
       </c>
@@ -25177,7 +25048,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B61)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C61), ISNUMBER(D61), C61&lt;=D61)</f>
         <v>1</v>
       </c>
@@ -25214,7 +25085,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B62)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C62), ISNUMBER(D62), C62&lt;=D62)</f>
         <v>1</v>
       </c>
@@ -25251,7 +25122,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B63)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C63), ISNUMBER(D63), C63&lt;=D63)</f>
         <v>1</v>
       </c>
@@ -25288,7 +25159,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B64)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C64), ISNUMBER(D64), C64&lt;=D64)</f>
         <v>1</v>
       </c>
@@ -25325,7 +25196,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B65)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C65), ISNUMBER(D65), C65&lt;=D65)</f>
         <v>1</v>
       </c>
@@ -25362,7 +25233,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B66)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C66), ISNUMBER(D66), C66&lt;=D66)</f>
         <v>1</v>
       </c>
@@ -25399,7 +25270,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B67)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C67), ISNUMBER(D67), C67&lt;=D67)</f>
         <v>1</v>
       </c>
@@ -25436,7 +25307,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B68)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C68), ISNUMBER(D68), C68&lt;=D68)</f>
         <v>1</v>
       </c>
@@ -25473,7 +25344,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B69)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C69), ISNUMBER(D69), C69&lt;=D69)</f>
         <v>1</v>
       </c>
@@ -25510,7 +25381,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B70)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C70), ISNUMBER(D70), C70&lt;=D70)</f>
         <v>1</v>
       </c>
@@ -25547,7 +25418,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B71)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C71), ISNUMBER(D71), C71&lt;=D71)</f>
         <v>1</v>
       </c>
@@ -25584,7 +25455,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B72)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C72), ISNUMBER(D72), C72&lt;=D72)</f>
         <v>1</v>
       </c>
@@ -25621,7 +25492,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B73)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C73), ISNUMBER(D73), C73&lt;=D73)</f>
         <v>1</v>
       </c>
@@ -25658,7 +25529,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B74)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C74), ISNUMBER(D74), C74&lt;=D74)</f>
         <v>1</v>
       </c>
@@ -25695,7 +25566,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B75)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C75), ISNUMBER(D75), C75&lt;=D75)</f>
         <v>1</v>
       </c>
@@ -25732,7 +25603,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B76)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C76), ISNUMBER(D76), C76&lt;=D76)</f>
         <v>1</v>
       </c>
@@ -25769,7 +25640,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B77)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C77), ISNUMBER(D77), C77&lt;=D77)</f>
         <v>1</v>
       </c>
@@ -25806,7 +25677,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B78)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C78), ISNUMBER(D78), C78&lt;=D78)</f>
         <v>1</v>
       </c>
@@ -25843,7 +25714,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B79)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C79), ISNUMBER(D79), C79&lt;=D79)</f>
         <v>1</v>
       </c>
@@ -25880,7 +25751,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B80)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C80), ISNUMBER(D80), C80&lt;=D80)</f>
         <v>1</v>
       </c>
@@ -25917,7 +25788,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B81)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C81), ISNUMBER(D81), C81&lt;=D81)</f>
         <v>1</v>
       </c>
@@ -25954,7 +25825,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B82)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C82), ISNUMBER(D82), C82&lt;=D82)</f>
         <v>1</v>
       </c>
@@ -25991,7 +25862,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B83)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C83), ISNUMBER(D83), C83&lt;=D83)</f>
         <v>1</v>
       </c>
@@ -26028,7 +25899,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B84)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C84), ISNUMBER(D84), C84&lt;=D84)</f>
         <v>1</v>
       </c>
@@ -26065,7 +25936,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B85)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C85), ISNUMBER(D85), C85&lt;=D85)</f>
         <v>1</v>
       </c>
@@ -26102,7 +25973,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B86)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C86), ISNUMBER(D86), C86&lt;=D86)</f>
         <v>1</v>
       </c>
@@ -26139,7 +26010,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B87)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C87), ISNUMBER(D87), C87&lt;=D87)</f>
         <v>1</v>
       </c>
@@ -26176,7 +26047,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B88)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C88), ISNUMBER(D88), C88&lt;=D88)</f>
         <v>1</v>
       </c>
@@ -26213,7 +26084,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B89)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C89), ISNUMBER(D89), C89&lt;=D89)</f>
         <v>1</v>
       </c>
@@ -26250,7 +26121,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B90)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C90), ISNUMBER(D90), C90&lt;=D90)</f>
         <v>1</v>
       </c>
@@ -26287,7 +26158,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B91)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C91), ISNUMBER(D91), C91&lt;=D91)</f>
         <v>1</v>
       </c>
@@ -26324,7 +26195,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B92)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C92), ISNUMBER(D92), C92&lt;=D92)</f>
         <v>1</v>
       </c>
@@ -26361,7 +26232,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B93)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C93), ISNUMBER(D93), C93&lt;=D93)</f>
         <v>1</v>
       </c>
@@ -26398,7 +26269,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B94)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C94), ISNUMBER(D94), C94&lt;=D94)</f>
         <v>1</v>
       </c>
@@ -26435,7 +26306,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B95)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C95), ISNUMBER(D95), C95&lt;=D95)</f>
         <v>1</v>
       </c>
@@ -26472,7 +26343,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B96)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C96), ISNUMBER(D96), C96&lt;=D96)</f>
         <v>1</v>
       </c>
@@ -26509,7 +26380,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B97)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C97), ISNUMBER(D97), C97&lt;=D97)</f>
         <v>1</v>
       </c>
@@ -26546,7 +26417,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B98)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C98), ISNUMBER(D98), C98&lt;=D98)</f>
         <v>1</v>
       </c>
@@ -26583,7 +26454,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B99)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C99), ISNUMBER(D99), C99&lt;=D99)</f>
         <v>1</v>
       </c>
@@ -26619,7 +26490,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B100)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C100), ISNUMBER(D100), C100&lt;=D100)</f>
         <v>1</v>
       </c>
@@ -26655,7 +26526,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B101)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C101), ISNUMBER(D101), C101&lt;=D101)</f>
         <v>1</v>
       </c>
@@ -26691,7 +26562,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B102)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C102), ISNUMBER(D102), C102&lt;=D102)</f>
         <v>1</v>
       </c>
@@ -26727,7 +26598,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B103)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C103), ISNUMBER(D103), C103&lt;=D103)</f>
         <v>1</v>
       </c>
@@ -26763,7 +26634,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B104)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C104), ISNUMBER(D104), C104&lt;=D104)</f>
         <v>1</v>
       </c>
@@ -26799,7 +26670,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B105)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C105), ISNUMBER(D105), C105&lt;=D105)</f>
         <v>1</v>
       </c>
@@ -26835,7 +26706,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B106)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C106), ISNUMBER(D106), C106&lt;=D106)</f>
         <v>1</v>
       </c>
@@ -26871,7 +26742,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B107)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C107), ISNUMBER(D107), C107&lt;=D107)</f>
         <v>1</v>
       </c>
@@ -26907,7 +26778,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B108)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C108), ISNUMBER(D108), C108&lt;=D108)</f>
         <v>1</v>
       </c>
@@ -26943,7 +26814,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B109)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I109" s="2" t="n">
+      <c r="I109" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C109), ISNUMBER(D109), C109&lt;=D109)</f>
         <v>1</v>
       </c>
@@ -26979,7 +26850,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B110)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C110), ISNUMBER(D110), C110&lt;=D110)</f>
         <v>1</v>
       </c>
@@ -27015,7 +26886,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B111)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C111), ISNUMBER(D111), C111&lt;=D111)</f>
         <v>1</v>
       </c>
@@ -27051,7 +26922,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B112)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I112" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C112), ISNUMBER(D112), C112&lt;=D112)</f>
         <v>1</v>
       </c>
@@ -27087,7 +26958,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B113)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C113), ISNUMBER(D113), C113&lt;=D113)</f>
         <v>1</v>
       </c>
@@ -27123,7 +26994,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B114)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C114), ISNUMBER(D114), C114&lt;=D114)</f>
         <v>1</v>
       </c>
@@ -27159,7 +27030,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B115)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C115), ISNUMBER(D115), C115&lt;=D115)</f>
         <v>1</v>
       </c>
@@ -27195,7 +27066,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B116)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C116), ISNUMBER(D116), C116&lt;=D116)</f>
         <v>1</v>
       </c>
@@ -27231,7 +27102,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B117)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C117), ISNUMBER(D117), C117&lt;=D117)</f>
         <v>1</v>
       </c>
@@ -27267,7 +27138,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B118)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="I118" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C118), ISNUMBER(D118), C118&lt;=D118)</f>
         <v>1</v>
       </c>
@@ -27303,7 +27174,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B119)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I119" s="2" t="n">
+      <c r="I119" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C119), ISNUMBER(D119), C119&lt;=D119)</f>
         <v>1</v>
       </c>
@@ -27339,7 +27210,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B120)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I120" s="2" t="n">
+      <c r="I120" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C120), ISNUMBER(D120), C120&lt;=D120)</f>
         <v>1</v>
       </c>
@@ -27375,7 +27246,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B121)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I121" s="2" t="n">
+      <c r="I121" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C121), ISNUMBER(D121), C121&lt;=D121)</f>
         <v>1</v>
       </c>
@@ -27411,7 +27282,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B122)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C122), ISNUMBER(D122), C122&lt;=D122)</f>
         <v>1</v>
       </c>
@@ -27447,7 +27318,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B123)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I123" s="2" t="n">
+      <c r="I123" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C123), ISNUMBER(D123), C123&lt;=D123)</f>
         <v>1</v>
       </c>
@@ -27483,7 +27354,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B124)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I124" s="2" t="n">
+      <c r="I124" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C124), ISNUMBER(D124), C124&lt;=D124)</f>
         <v>1</v>
       </c>
@@ -27519,7 +27390,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B125)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I125" s="2" t="n">
+      <c r="I125" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C125), ISNUMBER(D125), C125&lt;=D125)</f>
         <v>1</v>
       </c>
@@ -27555,7 +27426,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B126)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I126" s="2" t="n">
+      <c r="I126" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C126), ISNUMBER(D126), C126&lt;=D126)</f>
         <v>1</v>
       </c>
@@ -27591,7 +27462,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B127)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I127" s="2" t="n">
+      <c r="I127" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C127), ISNUMBER(D127), C127&lt;=D127)</f>
         <v>1</v>
       </c>
@@ -27627,7 +27498,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B128)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I128" s="2" t="n">
+      <c r="I128" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C128), ISNUMBER(D128), C128&lt;=D128)</f>
         <v>1</v>
       </c>
@@ -27663,7 +27534,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B129)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I129" s="2" t="n">
+      <c r="I129" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C129), ISNUMBER(D129), C129&lt;=D129)</f>
         <v>1</v>
       </c>
@@ -27699,7 +27570,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B130)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="I130" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C130), ISNUMBER(D130), C130&lt;=D130)</f>
         <v>1</v>
       </c>
@@ -27735,7 +27606,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B131)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I131" s="2" t="n">
+      <c r="I131" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C131), ISNUMBER(D131), C131&lt;=D131)</f>
         <v>1</v>
       </c>
@@ -27771,7 +27642,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B132)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I132" s="2" t="n">
+      <c r="I132" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C132), ISNUMBER(D132), C132&lt;=D132)</f>
         <v>1</v>
       </c>
@@ -27807,7 +27678,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B133)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I133" s="2" t="n">
+      <c r="I133" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C133), ISNUMBER(D133), C133&lt;=D133)</f>
         <v>1</v>
       </c>
@@ -27843,7 +27714,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B134)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I134" s="2" t="n">
+      <c r="I134" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C134), ISNUMBER(D134), C134&lt;=D134)</f>
         <v>1</v>
       </c>
@@ -27879,7 +27750,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B135)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I135" s="2" t="n">
+      <c r="I135" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C135), ISNUMBER(D135), C135&lt;=D135)</f>
         <v>1</v>
       </c>
@@ -27915,7 +27786,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B136)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I136" s="2" t="n">
+      <c r="I136" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C136), ISNUMBER(D136), C136&lt;=D136)</f>
         <v>1</v>
       </c>
@@ -27951,7 +27822,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B137)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I137" s="2" t="n">
+      <c r="I137" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C137), ISNUMBER(D137), C137&lt;=D137)</f>
         <v>1</v>
       </c>
@@ -27987,7 +27858,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B138)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I138" s="2" t="n">
+      <c r="I138" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C138), ISNUMBER(D138), C138&lt;=D138)</f>
         <v>1</v>
       </c>
@@ -28023,7 +27894,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B139)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I139" s="2" t="n">
+      <c r="I139" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C139), ISNUMBER(D139), C139&lt;=D139)</f>
         <v>1</v>
       </c>
@@ -28059,7 +27930,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B140)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I140" s="2" t="n">
+      <c r="I140" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C140), ISNUMBER(D140), C140&lt;=D140)</f>
         <v>1</v>
       </c>
@@ -28095,7 +27966,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B141)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I141" s="2" t="n">
+      <c r="I141" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C141), ISNUMBER(D141), C141&lt;=D141)</f>
         <v>1</v>
       </c>
@@ -28131,7 +28002,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B142)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I142" s="2" t="n">
+      <c r="I142" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C142), ISNUMBER(D142), C142&lt;=D142)</f>
         <v>1</v>
       </c>
@@ -28167,7 +28038,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B143)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I143" s="2" t="n">
+      <c r="I143" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C143), ISNUMBER(D143), C143&lt;=D143)</f>
         <v>1</v>
       </c>
@@ -28203,7 +28074,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B144)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I144" s="2" t="n">
+      <c r="I144" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C144), ISNUMBER(D144), C144&lt;=D144)</f>
         <v>1</v>
       </c>
@@ -28239,7 +28110,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B145)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I145" s="2" t="n">
+      <c r="I145" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C145), ISNUMBER(D145), C145&lt;=D145)</f>
         <v>1</v>
       </c>
@@ -28275,7 +28146,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B146)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I146" s="2" t="n">
+      <c r="I146" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C146), ISNUMBER(D146), C146&lt;=D146)</f>
         <v>1</v>
       </c>
@@ -28311,7 +28182,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B147)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I147" s="2" t="n">
+      <c r="I147" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C147), ISNUMBER(D147), C147&lt;=D147)</f>
         <v>1</v>
       </c>
@@ -28347,7 +28218,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B148)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I148" s="2" t="n">
+      <c r="I148" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C148), ISNUMBER(D148), C148&lt;=D148)</f>
         <v>1</v>
       </c>
@@ -28383,7 +28254,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B149)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I149" s="2" t="n">
+      <c r="I149" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C149), ISNUMBER(D149), C149&lt;=D149)</f>
         <v>1</v>
       </c>
@@ -28419,7 +28290,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B150)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I150" s="2" t="n">
+      <c r="I150" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C150), ISNUMBER(D150), C150&lt;=D150)</f>
         <v>1</v>
       </c>
@@ -28455,7 +28326,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B151)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I151" s="2" t="n">
+      <c r="I151" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C151), ISNUMBER(D151), C151&lt;=D151)</f>
         <v>1</v>
       </c>
@@ -28491,7 +28362,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B152)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I152" s="2" t="n">
+      <c r="I152" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C152), ISNUMBER(D152), C152&lt;=D152)</f>
         <v>1</v>
       </c>
@@ -28527,7 +28398,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B153)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I153" s="2" t="n">
+      <c r="I153" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C153), ISNUMBER(D153), C153&lt;=D153)</f>
         <v>1</v>
       </c>
@@ -28563,7 +28434,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B154)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I154" s="2" t="n">
+      <c r="I154" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C154), ISNUMBER(D154), C154&lt;=D154)</f>
         <v>1</v>
       </c>
@@ -28599,7 +28470,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B155)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I155" s="2" t="n">
+      <c r="I155" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C155), ISNUMBER(D155), C155&lt;=D155)</f>
         <v>1</v>
       </c>
@@ -28635,7 +28506,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B156)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I156" s="2" t="n">
+      <c r="I156" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C156), ISNUMBER(D156), C156&lt;=D156)</f>
         <v>1</v>
       </c>
@@ -28671,7 +28542,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B157)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I157" s="2" t="n">
+      <c r="I157" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C157), ISNUMBER(D157), C157&lt;=D157)</f>
         <v>1</v>
       </c>
@@ -28707,7 +28578,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B158)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I158" s="2" t="n">
+      <c r="I158" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C158), ISNUMBER(D158), C158&lt;=D158)</f>
         <v>1</v>
       </c>
@@ -28743,7 +28614,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B159)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I159" s="2" t="n">
+      <c r="I159" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C159), ISNUMBER(D159), C159&lt;=D159)</f>
         <v>1</v>
       </c>
@@ -28779,7 +28650,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B160)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I160" s="2" t="n">
+      <c r="I160" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C160), ISNUMBER(D160), C160&lt;=D160)</f>
         <v>1</v>
       </c>
@@ -28815,7 +28686,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B161)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I161" s="2" t="n">
+      <c r="I161" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C161), ISNUMBER(D161), C161&lt;=D161)</f>
         <v>1</v>
       </c>
@@ -28851,7 +28722,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B162)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I162" s="2" t="n">
+      <c r="I162" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C162), ISNUMBER(D162), C162&lt;=D162)</f>
         <v>1</v>
       </c>
@@ -28887,7 +28758,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B163)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I163" s="2" t="n">
+      <c r="I163" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C163), ISNUMBER(D163), C163&lt;=D163)</f>
         <v>1</v>
       </c>
@@ -28923,7 +28794,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B164)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I164" s="2" t="n">
+      <c r="I164" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C164), ISNUMBER(D164), C164&lt;=D164)</f>
         <v>1</v>
       </c>
@@ -28959,7 +28830,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B165)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I165" s="2" t="n">
+      <c r="I165" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C165), ISNUMBER(D165), C165&lt;=D165)</f>
         <v>1</v>
       </c>
@@ -28995,7 +28866,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B166)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I166" s="2" t="n">
+      <c r="I166" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C166), ISNUMBER(D166), C166&lt;=D166)</f>
         <v>1</v>
       </c>
@@ -29031,7 +28902,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B167)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I167" s="2" t="n">
+      <c r="I167" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C167), ISNUMBER(D167), C167&lt;=D167)</f>
         <v>1</v>
       </c>
@@ -29067,7 +28938,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B168)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I168" s="2" t="n">
+      <c r="I168" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C168), ISNUMBER(D168), C168&lt;=D168)</f>
         <v>1</v>
       </c>
@@ -29103,7 +28974,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B169)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I169" s="2" t="n">
+      <c r="I169" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C169), ISNUMBER(D169), C169&lt;=D169)</f>
         <v>1</v>
       </c>
@@ -29139,7 +29010,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B170)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I170" s="2" t="n">
+      <c r="I170" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C170), ISNUMBER(D170), C170&lt;=D170)</f>
         <v>1</v>
       </c>
@@ -29175,7 +29046,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B171)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I171" s="2" t="n">
+      <c r="I171" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C171), ISNUMBER(D171), C171&lt;=D171)</f>
         <v>1</v>
       </c>
@@ -29211,7 +29082,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B172)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I172" s="2" t="n">
+      <c r="I172" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C172), ISNUMBER(D172), C172&lt;=D172)</f>
         <v>1</v>
       </c>
@@ -29247,7 +29118,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B173)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I173" s="2" t="n">
+      <c r="I173" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C173), ISNUMBER(D173), C173&lt;=D173)</f>
         <v>1</v>
       </c>
@@ -29283,7 +29154,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B174)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I174" s="2" t="n">
+      <c r="I174" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C174), ISNUMBER(D174), C174&lt;=D174)</f>
         <v>1</v>
       </c>
@@ -29319,7 +29190,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B175)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I175" s="2" t="n">
+      <c r="I175" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C175), ISNUMBER(D175), C175&lt;=D175)</f>
         <v>1</v>
       </c>
@@ -29355,7 +29226,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B176)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I176" s="2" t="n">
+      <c r="I176" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C176), ISNUMBER(D176), C176&lt;=D176)</f>
         <v>1</v>
       </c>
@@ -29391,7 +29262,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B177)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I177" s="2" t="n">
+      <c r="I177" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C177), ISNUMBER(D177), C177&lt;=D177)</f>
         <v>1</v>
       </c>
@@ -29427,7 +29298,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B178)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I178" s="2" t="n">
+      <c r="I178" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C178), ISNUMBER(D178), C178&lt;=D178)</f>
         <v>1</v>
       </c>
@@ -29463,7 +29334,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B179)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I179" s="2" t="n">
+      <c r="I179" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C179), ISNUMBER(D179), C179&lt;=D179)</f>
         <v>1</v>
       </c>
@@ -29499,7 +29370,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B180)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I180" s="2" t="n">
+      <c r="I180" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C180), ISNUMBER(D180), C180&lt;=D180)</f>
         <v>1</v>
       </c>
@@ -29535,7 +29406,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B181)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I181" s="2" t="n">
+      <c r="I181" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C181), ISNUMBER(D181), C181&lt;=D181)</f>
         <v>1</v>
       </c>
@@ -29571,7 +29442,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B182)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I182" s="2" t="n">
+      <c r="I182" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C182), ISNUMBER(D182), C182&lt;=D182)</f>
         <v>1</v>
       </c>
@@ -29607,7 +29478,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B183)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I183" s="2" t="n">
+      <c r="I183" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C183), ISNUMBER(D183), C183&lt;=D183)</f>
         <v>1</v>
       </c>
@@ -29643,7 +29514,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B184)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I184" s="2" t="n">
+      <c r="I184" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C184), ISNUMBER(D184), C184&lt;=D184)</f>
         <v>1</v>
       </c>
@@ -29679,7 +29550,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B185)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I185" s="2" t="n">
+      <c r="I185" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C185), ISNUMBER(D185), C185&lt;=D185)</f>
         <v>1</v>
       </c>
@@ -29715,7 +29586,7 @@
         <f aca="false">COUNTIF(task!$A$2:$A$613,B186)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I186" s="2" t="n">
+      <c r="I186" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C186), ISNUMBER(D186), C186&lt;=D186)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
+++ b/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2593,8 +2593,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
+        <f aca="false">misc!E2</f>
+        <v>46391</v>
       </c>
       <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
@@ -2953,7 +2953,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
+++ b/ampl-data-input-excel/33-assign-423/33-assign-423.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -1330,7 +1330,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="D1:D2 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2476,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2542,8 +2542,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="D1:D2 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,7 +2624,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2731,7 +2731,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2775,7 +2775,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2828,7 +2828,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2881,7 +2881,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2954,7 +2954,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2995,7 +2995,7 @@
   <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D2 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16017,7 +16017,7 @@
   <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B407" activeCellId="0" sqref="B407"/>
+      <selection pane="topLeft" activeCell="B407" activeCellId="1" sqref="D1:D2 B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22816,7 +22816,7 @@
   <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="1" sqref="D1:D2 M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29623,7 +29623,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30082,7 +30082,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30279,7 +30279,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30644,7 +30644,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A477" activeCellId="0" sqref="A477"/>
+      <selection pane="topLeft" activeCell="A477" activeCellId="1" sqref="D1:D2 A477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41258,7 +41258,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="1" sqref="D1:D2 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
